--- a/snapshot/OxygenSaturationArterialBloodMeas.xlsx
+++ b/snapshot/OxygenSaturationArterialBloodMeas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="523">
   <si>
     <t>Path</t>
   </si>
@@ -355,8 +355,11 @@
     <t>deltaFlag</t>
   </si>
   <si>
-    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/deltaFlag]]} {[]}
+    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/DeltaFlagExt]]} {[]}
 </t>
+  </si>
+  <si>
+    <t>Delta Flag</t>
   </si>
   <si>
     <t>The qualitative change in the value relative to the previous measurement. Usually only recorded if the change is clinically significant.</t>
@@ -373,7 +376,7 @@
     <t>sensorDescription</t>
   </si>
   <si>
-    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/sensorDescription]]} {[]}
+    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/SensorDescriptionExt]]} {[]}
 </t>
   </si>
   <si>
@@ -2930,10 +2933,10 @@
         <v>108</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2993,10 +2996,10 @@
         <v>44</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>45</v>
@@ -3022,7 +3025,7 @@
         <v>100</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>45</v>
@@ -3044,13 +3047,13 @@
         <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3110,10 +3113,10 @@
         <v>44</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>45</v>
@@ -3136,11 +3139,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3162,13 +3165,13 @@
         <v>101</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3218,7 +3221,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -3253,7 +3256,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3276,17 +3279,17 @@
         <v>57</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>45</v>
@@ -3335,7 +3338,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3350,19 +3353,19 @@
         <v>45</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>45</v>
@@ -3370,11 +3373,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3393,17 +3396,17 @@
         <v>57</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
@@ -3452,7 +3455,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -3467,16 +3470,16 @@
         <v>45</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -3487,7 +3490,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3513,16 +3516,16 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3547,13 +3550,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3571,7 +3574,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>56</v>
@@ -3586,19 +3589,19 @@
         <v>45</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3606,7 +3609,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3629,19 +3632,19 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3666,13 +3669,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3690,7 +3693,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3714,10 +3717,10 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3725,11 +3728,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3748,17 +3751,17 @@
         <v>57</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3783,13 +3786,13 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3807,7 +3810,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>56</v>
@@ -3822,27 +3825,27 @@
         <v>45</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3865,13 +3868,13 @@
         <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3922,7 +3925,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3946,7 +3949,7 @@
         <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>45</v>
@@ -3957,11 +3960,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3983,13 +3986,13 @@
         <v>101</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4030,7 +4033,7 @@
         <v>104</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>45</v>
@@ -4039,7 +4042,7 @@
         <v>105</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -4063,7 +4066,7 @@
         <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4097,19 +4100,19 @@
         <v>57</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -4158,7 +4161,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -4179,10 +4182,10 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4216,13 +4219,13 @@
         <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4273,7 +4276,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4297,7 +4300,7 @@
         <v>45</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4308,11 +4311,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4334,13 +4337,13 @@
         <v>101</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4381,7 +4384,7 @@
         <v>104</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>45</v>
@@ -4390,7 +4393,7 @@
         <v>105</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4414,7 +4417,7 @@
         <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4451,23 +4454,23 @@
         <v>69</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>45</v>
@@ -4509,7 +4512,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4530,10 +4533,10 @@
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>45</v>
@@ -4544,7 +4547,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4567,16 +4570,16 @@
         <v>57</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4626,7 +4629,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4647,10 +4650,10 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4661,7 +4664,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4687,21 +4690,21 @@
         <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>45</v>
@@ -4743,7 +4746,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4764,10 +4767,10 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4778,7 +4781,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4801,24 +4804,24 @@
         <v>57</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>45</v>
@@ -4860,7 +4863,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4881,10 +4884,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4895,7 +4898,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4918,19 +4921,19 @@
         <v>57</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4979,7 +4982,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -5000,10 +5003,10 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -5014,7 +5017,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5037,19 +5040,19 @@
         <v>57</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -5098,7 +5101,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -5119,10 +5122,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -5133,7 +5136,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5156,19 +5159,19 @@
         <v>57</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5217,7 +5220,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5232,19 +5235,19 @@
         <v>45</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
@@ -5252,11 +5255,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5275,19 +5278,19 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5336,7 +5339,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5351,19 +5354,19 @@
         <v>45</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5371,11 +5374,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5394,19 +5397,19 @@
         <v>57</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5455,7 +5458,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5470,19 +5473,19 @@
         <v>45</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5490,7 +5493,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5513,16 +5516,16 @@
         <v>57</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5572,7 +5575,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5593,13 +5596,13 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
@@ -5607,7 +5610,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5630,17 +5633,17 @@
         <v>57</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5689,7 +5692,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5704,19 +5707,19 @@
         <v>45</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5724,7 +5727,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5747,19 +5750,19 @@
         <v>57</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5808,7 +5811,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5817,33 +5820,33 @@
         <v>56</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5866,13 +5869,13 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5923,7 +5926,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5947,7 +5950,7 @@
         <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5958,11 +5961,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5984,13 +5987,13 @@
         <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6031,7 +6034,7 @@
         <v>104</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>45</v>
@@ -6040,7 +6043,7 @@
         <v>105</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -6064,7 +6067,7 @@
         <v>45</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -6075,7 +6078,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6098,19 +6101,19 @@
         <v>57</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6159,7 +6162,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6180,10 +6183,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6194,7 +6197,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6220,22 +6223,22 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q38" t="s" s="2">
         <v>45</v>
@@ -6256,13 +6259,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -6280,7 +6283,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6301,10 +6304,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6315,7 +6318,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6338,17 +6341,17 @@
         <v>57</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6397,7 +6400,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6418,10 +6421,10 @@
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6455,26 +6458,26 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>45</v>
@@ -6516,7 +6519,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6528,7 +6531,7 @@
         <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
@@ -6551,7 +6554,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6574,26 +6577,26 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>45</v>
@@ -6635,7 +6638,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6647,7 +6650,7 @@
         <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>45</v>
@@ -6670,7 +6673,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6693,19 +6696,19 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6733,10 +6736,10 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6754,7 +6757,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6763,13 +6766,13 @@
         <v>56</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>45</v>
@@ -6778,7 +6781,7 @@
         <v>99</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6789,11 +6792,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6812,17 +6815,17 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6847,11 +6850,11 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -6869,7 +6872,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6887,24 +6890,24 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6927,17 +6930,17 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6986,7 +6989,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7001,16 +7004,16 @@
         <v>45</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -7021,7 +7024,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7044,16 +7047,16 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7079,13 +7082,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -7103,7 +7106,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7121,24 +7124,24 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7161,19 +7164,19 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7198,13 +7201,13 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -7222,7 +7225,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7243,10 +7246,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7257,7 +7260,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7280,16 +7283,16 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7339,7 +7342,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7357,24 +7360,24 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7397,16 +7400,16 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7456,7 +7459,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7474,24 +7477,24 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7514,19 +7517,19 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7575,7 +7578,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7587,7 +7590,7 @@
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
@@ -7596,10 +7599,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7610,7 +7613,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7633,13 +7636,13 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7690,7 +7693,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7714,7 +7717,7 @@
         <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7725,11 +7728,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7751,13 +7754,13 @@
         <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7807,7 +7810,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7831,7 +7834,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7842,11 +7845,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7868,13 +7871,13 @@
         <v>101</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7924,7 +7927,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7959,7 +7962,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7982,13 +7985,13 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8039,7 +8042,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8048,7 +8051,7 @@
         <v>56</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>45</v>
@@ -8060,10 +8063,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -8074,7 +8077,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8097,13 +8100,13 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8154,7 +8157,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8163,7 +8166,7 @@
         <v>56</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>45</v>
@@ -8175,10 +8178,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8189,7 +8192,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8212,19 +8215,19 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8252,10 +8255,10 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8273,7 +8276,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8291,13 +8294,13 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8308,7 +8311,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8331,19 +8334,19 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8368,13 +8371,13 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8392,7 +8395,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8410,13 +8413,13 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8427,7 +8430,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8450,17 +8453,17 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8509,7 +8512,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8533,7 +8536,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8544,7 +8547,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8567,13 +8570,13 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8624,7 +8627,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8645,10 +8648,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8659,7 +8662,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8682,19 +8685,19 @@
         <v>57</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8743,7 +8746,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8755,7 +8758,7 @@
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
@@ -8764,10 +8767,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8778,7 +8781,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8801,13 +8804,13 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8858,7 +8861,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8882,7 +8885,7 @@
         <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8893,11 +8896,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8919,13 +8922,13 @@
         <v>101</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8975,7 +8978,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8999,7 +9002,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -9010,11 +9013,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9036,13 +9039,13 @@
         <v>101</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9092,7 +9095,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9127,7 +9130,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9153,16 +9156,16 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9187,13 +9190,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -9211,7 +9214,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9235,7 +9238,7 @@
         <v>99</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9246,7 +9249,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9269,13 +9272,13 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9326,7 +9329,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>56</v>
@@ -9350,7 +9353,7 @@
         <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9361,7 +9364,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9384,19 +9387,19 @@
         <v>57</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9445,7 +9448,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9457,7 +9460,7 @@
         <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>45</v>
@@ -9466,10 +9469,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9480,7 +9483,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9503,13 +9506,13 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9560,7 +9563,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9584,7 +9587,7 @@
         <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9595,11 +9598,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9621,13 +9624,13 @@
         <v>101</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9677,7 +9680,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9701,7 +9704,7 @@
         <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9712,11 +9715,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9738,13 +9741,13 @@
         <v>101</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9794,7 +9797,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9829,7 +9832,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9852,17 +9855,17 @@
         <v>57</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -9887,13 +9890,13 @@
         <v>45</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -9911,7 +9914,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>56</v>
@@ -9929,16 +9932,16 @@
         <v>45</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>45</v>
@@ -9946,7 +9949,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9969,19 +9972,19 @@
         <v>57</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10030,7 +10033,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10048,24 +10051,24 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10088,19 +10091,19 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10128,10 +10131,10 @@
         <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>45</v>
@@ -10149,7 +10152,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10158,7 +10161,7 @@
         <v>56</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>45</v>
@@ -10173,7 +10176,7 @@
         <v>99</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10184,11 +10187,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10207,19 +10210,19 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10247,10 +10250,10 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
@@ -10268,7 +10271,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10286,24 +10289,24 @@
         <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10329,16 +10332,16 @@
         <v>45</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
@@ -10387,7 +10390,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10408,10 +10411,10 @@
         <v>45</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
